--- a/app/data/royalties_sigep.xlsx
+++ b/app/data/royalties_sigep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\@UFRJ\observatorio\paineldedados\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB6DB75-A852-44CA-8AB2-31121A6D54C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D70917-7C9C-43E5-B9A1-1EE63C111230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="94">
   <si>
     <t>uf</t>
   </si>
@@ -382,7 +382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -390,6 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K451"/>
+  <dimension ref="A1:P445"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="O335" sqref="O335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,63 +774,63 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D3" s="3">
-        <v>327004890</v>
+        <v>18287550</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D4" s="3">
-        <v>19634430</v>
+        <v>20049900</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D5" s="3">
-        <v>272862650</v>
+        <v>21613060</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D6" s="3">
-        <v>364509060</v>
+        <v>23103290</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -838,69 +839,69 @@
         <v>2021</v>
       </c>
       <c r="D7" s="3">
-        <v>46328480</v>
+        <v>327004890</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D8" s="3">
-        <v>41101740</v>
+        <v>494145730</v>
       </c>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D9" s="3">
-        <v>37398910</v>
+        <v>662848270</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D10" s="3">
-        <v>25244260</v>
+        <v>837342330</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D11" s="3">
-        <v>27114210</v>
+        <v>954463260</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
@@ -909,68 +910,68 @@
         <v>2021</v>
       </c>
       <c r="D12" s="3">
-        <v>503957010</v>
+        <v>19634430</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D13" s="3">
-        <v>156898740</v>
+        <v>18287550</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D14" s="3">
-        <v>21504370</v>
+        <v>20049900</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D15" s="3">
-        <v>654075020</v>
+        <v>21613060</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D16" s="3">
-        <v>23374320</v>
+        <v>23103290</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
@@ -979,68 +980,68 @@
         <v>2021</v>
       </c>
       <c r="D17" s="3">
-        <v>99694180</v>
+        <v>272862650</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D18" s="3">
-        <v>20569400</v>
+        <v>255041650</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D19" s="3">
-        <v>22439350</v>
+        <v>282181830</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="2">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D20" s="3">
-        <v>146510990</v>
+        <v>304989240</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D21" s="3">
-        <v>18699460</v>
+        <v>327974830</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1</v>
@@ -1049,68 +1050,68 @@
         <v>2021</v>
       </c>
       <c r="D22" s="3">
-        <v>24309290</v>
+        <v>364509060</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D23" s="3">
-        <v>24309290</v>
+        <v>466889350</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D24" s="3">
-        <v>19634430</v>
+        <v>603346740</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D25" s="3">
-        <v>174670610</v>
+        <v>759780950</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="2">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D26" s="3">
-        <v>20569400</v>
+        <v>846486980</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>1</v>
@@ -1119,68 +1120,68 @@
         <v>2021</v>
       </c>
       <c r="D27" s="3">
-        <v>162076870</v>
+        <v>46328480</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D28" s="3">
-        <v>24309290</v>
+        <v>42943840</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D29" s="3">
-        <v>37398910</v>
+        <v>46880950</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="2">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D30" s="3">
-        <v>149870610</v>
+        <v>50473940</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="2">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D31" s="3">
-        <v>21504370</v>
+        <v>53745930</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>1</v>
@@ -1189,68 +1190,68 @@
         <v>2021</v>
       </c>
       <c r="D32" s="3">
-        <v>24309290</v>
+        <v>41101740</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D33" s="3">
-        <v>33659020</v>
+        <v>38242190</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D34" s="3">
-        <v>26179240</v>
+        <v>41883020</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="2">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D35" s="3">
-        <v>46328480</v>
+        <v>45161560</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="2">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D36" s="3">
-        <v>18699460</v>
+        <v>48253510</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>1</v>
@@ -1259,68 +1260,68 @@
         <v>2021</v>
       </c>
       <c r="D37" s="3">
-        <v>1296409330</v>
+        <v>37398910</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D38" s="3">
-        <v>18699460</v>
+        <v>34833430</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D39" s="3">
-        <v>181414170</v>
+        <v>38190280</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="2">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D40" s="3">
-        <v>28282460</v>
+        <v>41167740</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="2">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D41" s="3">
-        <v>2098802339.9999998</v>
+        <v>44006270</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>1</v>
@@ -1329,68 +1330,68 @@
         <v>2021</v>
       </c>
       <c r="D42" s="3">
-        <v>22439350</v>
+        <v>25244260</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C43" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D43" s="3">
-        <v>37398910</v>
+        <v>23512560</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C44" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D44" s="3">
-        <v>25244260</v>
+        <v>25778440</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C45" s="2">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D45" s="3">
-        <v>25244260</v>
+        <v>27788220</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C46" s="2">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D46" s="3">
-        <v>21504370</v>
+        <v>29704230</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>1</v>
@@ -1399,68 +1400,68 @@
         <v>2021</v>
       </c>
       <c r="D47" s="3">
-        <v>37398910</v>
+        <v>27114210</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D48" s="3">
-        <v>847052320</v>
+        <v>25254230</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C49" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D49" s="3">
-        <v>37398910</v>
+        <v>27687950</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C50" s="2">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D50" s="3">
-        <v>37398910</v>
+        <v>29846610</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C51" s="2">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D51" s="3">
-        <v>41653620</v>
+        <v>31904540</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>1</v>
@@ -1469,68 +1470,68 @@
         <v>2021</v>
       </c>
       <c r="D52" s="3">
-        <v>28984160</v>
+        <v>503957010</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C53" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D53" s="3">
-        <v>171495670</v>
+        <v>484440180</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C54" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D54" s="3">
-        <v>25244260</v>
+        <v>542110730</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C55" s="2">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D55" s="3">
-        <v>37398910</v>
+        <v>568119400</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C56" s="2">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D56" s="3">
-        <v>24309290</v>
+        <v>602412420</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>1</v>
@@ -1539,68 +1540,68 @@
         <v>2021</v>
       </c>
       <c r="D57" s="3">
-        <v>22439350</v>
+        <v>156898740</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D58" s="3">
-        <v>22439350</v>
+        <v>146135830</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C59" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D59" s="3">
-        <v>20569400</v>
+        <v>160218760</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C60" s="2">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D60" s="3">
-        <v>36463940</v>
+        <v>172710020</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C61" s="2">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D61" s="3">
-        <v>361214120</v>
+        <v>184618420</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>1</v>
@@ -1609,68 +1610,68 @@
         <v>2021</v>
       </c>
       <c r="D62" s="3">
-        <v>39131770</v>
+        <v>21504370</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C63" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D63" s="3">
-        <v>29919130</v>
+        <v>20029220</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C64" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D64" s="3">
-        <v>22439350</v>
+        <v>21959410</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C65" s="2">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D65" s="3">
-        <v>31368920</v>
+        <v>23671450</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C66" s="2">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D66" s="3">
-        <v>237455340</v>
+        <v>25303600</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>1</v>
@@ -1679,68 +1680,68 @@
         <v>2021</v>
       </c>
       <c r="D67" s="3">
-        <v>11777390000</v>
+        <v>654075020</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D68" s="3">
-        <v>402403810</v>
+        <v>638761410</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C69" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D69" s="3">
-        <v>19634430</v>
+        <v>752672230</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="2">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D70" s="3">
-        <v>28984160</v>
+        <v>727424360</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C71" s="2">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D71" s="3">
-        <v>28049190</v>
+        <v>731989990</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>1</v>
@@ -1749,68 +1750,68 @@
         <v>2021</v>
       </c>
       <c r="D72" s="3">
-        <v>28984160</v>
+        <v>23374320</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C73" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D73" s="3">
-        <v>231496150</v>
+        <v>21770890</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C74" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D74" s="3">
-        <v>37398910</v>
+        <v>23868930</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C75" s="2">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D75" s="3">
-        <v>18699460</v>
+        <v>25729840</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C76" s="2">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D76" s="3">
-        <v>24309290</v>
+        <v>27503920</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>1</v>
@@ -1819,68 +1820,68 @@
         <v>2021</v>
       </c>
       <c r="D77" s="3">
-        <v>33659020</v>
+        <v>99694180</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C78" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D78" s="3">
-        <v>18699460</v>
+        <v>93272480</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C79" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D79" s="3">
-        <v>22439350</v>
+        <v>101579500</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C80" s="2">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D80" s="3">
-        <v>1691867250</v>
+        <v>107452960</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C81" s="2">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D81" s="3">
-        <v>32724050</v>
+        <v>112934320</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>1</v>
@@ -1889,68 +1890,68 @@
         <v>2021</v>
       </c>
       <c r="D82" s="3">
-        <v>127480230</v>
+        <v>20569400</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C83" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D83" s="3">
-        <v>21504370</v>
+        <v>19158380</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C84" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D84" s="3">
-        <v>26179240</v>
+        <v>21004650</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C85" s="2">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D85" s="3">
-        <v>37398910</v>
+        <v>22642260</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C86" s="2">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D86" s="3">
-        <v>19634430</v>
+        <v>24203440</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>1</v>
@@ -1959,82 +1960,82 @@
         <v>2021</v>
       </c>
       <c r="D87" s="3">
-        <v>32724050</v>
+        <v>22439350</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C88" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D88" s="3">
-        <v>31789080</v>
+        <v>20900060</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C89" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D89" s="3">
-        <v>18699460</v>
+        <v>22914170</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C90" s="2">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D90" s="3">
-        <v>27114210</v>
+        <v>24700650</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C91" s="2">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D91" s="3">
-        <v>42345920</v>
+        <v>26403760</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C92" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D92" s="3">
-        <v>18287550</v>
+        <v>146510990</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>1</v>
@@ -2043,68 +2044,68 @@
         <v>2022</v>
       </c>
       <c r="D93" s="3">
-        <v>494145730</v>
+        <v>142192390</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C94" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D94" s="3">
-        <v>18287550</v>
+        <v>157936050</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C95" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D95" s="3">
-        <v>255041650</v>
+        <v>162469430</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C96" s="2">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D96" s="3">
-        <v>466889350</v>
+        <v>168906470</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C97" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D97" s="3">
-        <v>42943840</v>
+        <v>18699460</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>1</v>
@@ -2113,68 +2114,68 @@
         <v>2022</v>
       </c>
       <c r="D98" s="3">
-        <v>38242190</v>
+        <v>17416710</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C99" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D99" s="3">
-        <v>34833430</v>
+        <v>19095140</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C100" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D100" s="3">
-        <v>23512560</v>
+        <v>20583870</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C101" s="2">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D101" s="3">
-        <v>25254230</v>
+        <v>22003130</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C102" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D102" s="3">
-        <v>484440180</v>
+        <v>24309290</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>1</v>
@@ -2183,68 +2184,68 @@
         <v>2022</v>
       </c>
       <c r="D103" s="3">
-        <v>146135830</v>
+        <v>22641730</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C104" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D104" s="3">
-        <v>20029220</v>
+        <v>24823680</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C105" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D105" s="3">
-        <v>638761410</v>
+        <v>26759030</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C106" s="2">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D106" s="3">
-        <v>21770890</v>
+        <v>28604080</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C107" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D107" s="3">
-        <v>93272480</v>
+        <v>24309290</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>1</v>
@@ -2253,68 +2254,68 @@
         <v>2022</v>
       </c>
       <c r="D108" s="3">
-        <v>19158380</v>
+        <v>22641730</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C109" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D109" s="3">
-        <v>20900060</v>
+        <v>24823680</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C110" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D110" s="3">
-        <v>142192390</v>
+        <v>26759030</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C111" s="2">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D111" s="3">
-        <v>17416710</v>
+        <v>28604080</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C112" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D112" s="3">
-        <v>22641730</v>
+        <v>19634430</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>1</v>
@@ -2323,7 +2324,7 @@
         <v>2022</v>
       </c>
       <c r="D113" s="3">
-        <v>22641730</v>
+        <v>18287550</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2334,57 +2335,57 @@
         <v>1</v>
       </c>
       <c r="C114" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D114" s="3">
-        <v>18287550</v>
+        <v>20049900</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C115" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D115" s="3">
-        <v>162481970</v>
+        <v>21613060</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C116" s="2">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D116" s="3">
-        <v>19158380</v>
+        <v>23103290</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C117" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D117" s="3">
-        <v>150938330</v>
+        <v>174670610</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>1</v>
@@ -2393,68 +2394,68 @@
         <v>2022</v>
       </c>
       <c r="D118" s="3">
-        <v>22641730</v>
+        <v>162481970</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C119" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D119" s="3">
-        <v>34833430</v>
+        <v>177938820</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C120" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D120" s="3">
-        <v>139584490</v>
+        <v>191749580</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C121" s="2">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D121" s="3">
-        <v>20029220</v>
+        <v>204762570</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C122" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D122" s="3">
-        <v>22641730</v>
+        <v>20569400</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>1</v>
@@ -2463,68 +2464,68 @@
         <v>2022</v>
       </c>
       <c r="D123" s="3">
-        <v>31350080</v>
+        <v>19158380</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C124" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D124" s="3">
-        <v>24383400</v>
+        <v>21004650</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C125" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D125" s="3">
-        <v>42943840</v>
+        <v>22642260</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C126" s="2">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D126" s="3">
-        <v>17416710</v>
+        <v>24203440</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C127" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D127" s="3">
-        <v>1207589150</v>
+        <v>162076870</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>1</v>
@@ -2533,68 +2534,68 @@
         <v>2022</v>
       </c>
       <c r="D128" s="3">
-        <v>17416710</v>
+        <v>150938330</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C129" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D129" s="3">
-        <v>168969560</v>
+        <v>165446890</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C130" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D130" s="3">
-        <v>26278900</v>
+        <v>178419000</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C131" s="2">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D131" s="3">
-        <v>1867776220</v>
+        <v>190758460</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C132" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D132" s="3">
-        <v>20900060</v>
+        <v>24309290</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>1</v>
@@ -2603,68 +2604,68 @@
         <v>2022</v>
       </c>
       <c r="D133" s="3">
-        <v>34833430</v>
+        <v>22641730</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C134" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D134" s="3">
-        <v>23512560</v>
+        <v>24823680</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C135" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D135" s="3">
-        <v>23512560</v>
+        <v>26759030</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C136" s="2">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D136" s="3">
-        <v>20029220</v>
+        <v>28604080</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C137" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D137" s="3">
-        <v>34833430</v>
+        <v>37398910</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>1</v>
@@ -2673,68 +2674,68 @@
         <v>2022</v>
       </c>
       <c r="D138" s="3">
-        <v>697255060</v>
+        <v>34833430</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C139" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D139" s="3">
-        <v>34833430</v>
+        <v>38190280</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C140" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D140" s="3">
-        <v>34833430</v>
+        <v>41167740</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C141" s="2">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D141" s="3">
-        <v>38589660</v>
+        <v>44006270</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C142" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D142" s="3">
-        <v>26995910</v>
+        <v>149870610</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>1</v>
@@ -2743,68 +2744,68 @@
         <v>2022</v>
       </c>
       <c r="D143" s="3">
-        <v>166079380</v>
+        <v>139584490</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C144" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D144" s="3">
-        <v>23512560</v>
+        <v>153032450</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C145" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D145" s="3">
-        <v>34833430</v>
+        <v>164960780</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C146" s="2">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D146" s="3">
-        <v>22641730</v>
+        <v>176332810</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C147" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D147" s="3">
-        <v>20900060</v>
+        <v>21504370</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>1</v>
@@ -2813,68 +2814,68 @@
         <v>2022</v>
       </c>
       <c r="D148" s="3">
-        <v>20900060</v>
+        <v>20029220</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C149" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D149" s="3">
-        <v>19158380</v>
+        <v>21959410</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C150" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D150" s="3">
-        <v>33962590</v>
+        <v>23671450</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C151" s="2">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D151" s="3">
-        <v>324255000</v>
+        <v>25303600</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C152" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D152" s="3">
-        <v>36406030</v>
+        <v>24309290</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>1</v>
@@ -2883,68 +2884,68 @@
         <v>2022</v>
       </c>
       <c r="D153" s="3">
-        <v>27866740</v>
+        <v>22641730</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C154" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D154" s="3">
-        <v>20900060</v>
+        <v>24823680</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C155" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D155" s="3">
-        <v>29010470</v>
+        <v>26759030</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C156" s="2">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D156" s="3">
-        <v>227187150</v>
+        <v>28604080</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C157" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D157" s="3">
-        <v>11140550000</v>
+        <v>33659020</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>1</v>
@@ -2953,68 +2954,68 @@
         <v>2022</v>
       </c>
       <c r="D158" s="3">
-        <v>340147290</v>
+        <v>31350080</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C159" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D159" s="3">
-        <v>18287550</v>
+        <v>34371250</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C160" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D160" s="3">
-        <v>26995910</v>
+        <v>37050960</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C161" s="2">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D161" s="3">
-        <v>26125070</v>
+        <v>39605640</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C162" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D162" s="3">
-        <v>26995910</v>
+        <v>26179240</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>1</v>
@@ -3023,68 +3024,68 @@
         <v>2022</v>
       </c>
       <c r="D163" s="3">
-        <v>216078570</v>
+        <v>24383400</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C164" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D164" s="3">
-        <v>34833430</v>
+        <v>26733200</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C165" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D165" s="3">
-        <v>17416710</v>
+        <v>28817420</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C166" s="2">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D166" s="3">
-        <v>22641730</v>
+        <v>30804390</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C167" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D167" s="3">
-        <v>31350080</v>
+        <v>46328480</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>1</v>
@@ -3093,68 +3094,68 @@
         <v>2022</v>
       </c>
       <c r="D168" s="3">
-        <v>17416710</v>
+        <v>42943840</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C169" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D169" s="3">
-        <v>20900060</v>
+        <v>46880950</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C170" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D170" s="3">
-        <v>1600066850</v>
+        <v>50473940</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C171" s="2">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D171" s="3">
-        <v>30479250</v>
+        <v>53745930</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C172" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D172" s="3">
-        <v>118735360</v>
+        <v>18699460</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>1</v>
@@ -3163,68 +3164,68 @@
         <v>2022</v>
       </c>
       <c r="D173" s="3">
-        <v>20029220</v>
+        <v>17416710</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C174" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D174" s="3">
-        <v>24383400</v>
+        <v>19095140</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C175" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D175" s="3">
-        <v>34833430</v>
+        <v>20583870</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C176" s="2">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D176" s="3">
-        <v>18287550</v>
+        <v>22003130</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C177" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D177" s="3">
-        <v>30479250</v>
+        <v>1296409330</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>1</v>
@@ -3233,82 +3234,82 @@
         <v>2022</v>
       </c>
       <c r="D178" s="3">
-        <v>29608410</v>
+        <v>1207589150</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C179" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D179" s="3">
-        <v>17416710</v>
+        <v>1343327130</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C180" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D180" s="3">
-        <v>25254230</v>
+        <v>1445769910</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C181" s="2">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D181" s="3">
-        <v>39417590</v>
+        <v>1538676130</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C182" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D182" s="3">
-        <v>20049900</v>
+        <v>18699460</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C183" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D183" s="3">
-        <v>662848270</v>
+        <v>17416710</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>1</v>
@@ -3317,68 +3318,68 @@
         <v>2023</v>
       </c>
       <c r="D184" s="3">
-        <v>20049900</v>
+        <v>19095140</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C185" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D185" s="3">
-        <v>282181830</v>
+        <v>20583870</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C186" s="2">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D186" s="3">
-        <v>603346740</v>
+        <v>22003130</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C187" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D187" s="3">
-        <v>46880950</v>
+        <v>181414170</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C188" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D188" s="3">
-        <v>41883020</v>
+        <v>168969560</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>1</v>
@@ -3387,68 +3388,68 @@
         <v>2023</v>
       </c>
       <c r="D189" s="3">
-        <v>38190280</v>
+        <v>185252940</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C190" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D190" s="3">
-        <v>25778440</v>
+        <v>199695960</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C191" s="2">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D191" s="3">
-        <v>27687950</v>
+        <v>213465050</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C192" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D192" s="3">
-        <v>542110730</v>
+        <v>28282460</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C193" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D193" s="3">
-        <v>160218760</v>
+        <v>26278900</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>1</v>
@@ -3457,68 +3458,68 @@
         <v>2023</v>
       </c>
       <c r="D194" s="3">
-        <v>21959410</v>
+        <v>28768130</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C195" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D195" s="3">
-        <v>752672230</v>
+        <v>30979240</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C196" s="2">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D196" s="3">
-        <v>23868930</v>
+        <v>33090620.000000004</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C197" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D197" s="3">
-        <v>101579500</v>
+        <v>2098802339.9999998</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C198" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D198" s="3">
-        <v>21004650</v>
+        <v>1867776220</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>1</v>
@@ -3527,68 +3528,68 @@
         <v>2023</v>
       </c>
       <c r="D199" s="3">
-        <v>22914170</v>
+        <v>1927165030</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C200" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D200" s="3">
-        <v>157936050</v>
+        <v>2075953620</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C201" s="2">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D201" s="3">
-        <v>19095140</v>
+        <v>2270226820</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C202" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D202" s="3">
-        <v>24823680</v>
+        <v>22439350</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C203" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D203" s="3">
-        <v>24823680</v>
+        <v>20900060</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>1</v>
@@ -3597,68 +3598,68 @@
         <v>2023</v>
       </c>
       <c r="D204" s="3">
-        <v>20049900</v>
+        <v>22914170</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C205" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D205" s="3">
-        <v>177938820</v>
+        <v>24700650</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C206" s="2">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D206" s="3">
-        <v>21004650</v>
+        <v>26403760</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C207" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D207" s="3">
-        <v>165446890</v>
+        <v>37398910</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C208" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D208" s="3">
-        <v>24823680</v>
+        <v>34833430</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>1</v>
@@ -3672,63 +3673,63 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C210" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D210" s="3">
-        <v>153032450</v>
+        <v>41167740</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C211" s="2">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D211" s="3">
-        <v>21959410</v>
+        <v>44006270</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C212" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D212" s="3">
-        <v>24823680</v>
+        <v>25244260</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C213" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D213" s="3">
-        <v>34371250</v>
+        <v>23512560</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>1</v>
@@ -3737,68 +3738,68 @@
         <v>2023</v>
       </c>
       <c r="D214" s="3">
-        <v>26733200</v>
+        <v>25778440</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C215" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D215" s="3">
-        <v>46880950</v>
+        <v>27788220</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C216" s="2">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D216" s="3">
-        <v>19095140</v>
+        <v>29704230</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C217" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D217" s="3">
-        <v>1343327130</v>
+        <v>25244260</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C218" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D218" s="3">
-        <v>19095140</v>
+        <v>23512560</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>1</v>
@@ -3807,68 +3808,68 @@
         <v>2023</v>
       </c>
       <c r="D219" s="3">
-        <v>185252940</v>
+        <v>25778440</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C220" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D220" s="3">
-        <v>28768130</v>
+        <v>27788220</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C221" s="2">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D221" s="3">
-        <v>1927165030</v>
+        <v>29704230</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C222" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D222" s="3">
-        <v>22914170</v>
+        <v>21504370</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C223" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D223" s="3">
-        <v>38190280</v>
+        <v>20029220</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>1</v>
@@ -3877,21 +3878,21 @@
         <v>2023</v>
       </c>
       <c r="D224" s="3">
-        <v>25778440</v>
+        <v>21959410</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C225" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D225" s="3">
-        <v>25778440</v>
+        <v>23671450</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -3902,10 +3903,10 @@
         <v>1</v>
       </c>
       <c r="C226" s="2">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D226" s="3">
-        <v>21959410</v>
+        <v>25303600</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -3916,29 +3917,29 @@
         <v>1</v>
       </c>
       <c r="C227" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D227" s="3">
-        <v>38190280</v>
+        <v>37398910</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C228" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D228" s="3">
-        <v>678895490</v>
+        <v>34833430</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>1</v>
@@ -3952,63 +3953,63 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C230" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D230" s="3">
-        <v>38190280</v>
+        <v>41167740</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C231" s="2">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D231" s="3">
-        <v>42107170</v>
+        <v>44006270</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C232" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D232" s="3">
-        <v>29597470</v>
+        <v>847052320</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C233" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D233" s="3">
-        <v>175929020</v>
+        <v>697255060</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>1</v>
@@ -4017,68 +4018,68 @@
         <v>2023</v>
       </c>
       <c r="D234" s="3">
-        <v>25778440</v>
+        <v>678895490</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C235" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D235" s="3">
-        <v>38190280</v>
+        <v>682149720</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C236" s="2">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D236" s="3">
-        <v>24823680</v>
+        <v>648533070</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C237" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D237" s="3">
-        <v>22914170</v>
+        <v>37398910</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C238" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D238" s="3">
-        <v>22914170</v>
+        <v>34833430</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>1</v>
@@ -4087,68 +4088,68 @@
         <v>2023</v>
       </c>
       <c r="D239" s="3">
-        <v>21004650</v>
+        <v>38190280</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C240" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D240" s="3">
-        <v>37235530</v>
+        <v>41167740</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C241" s="2">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D241" s="3">
-        <v>339352540</v>
+        <v>44006270</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C242" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D242" s="3">
-        <v>39869410</v>
+        <v>37398910</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C243" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D243" s="3">
-        <v>30552230</v>
+        <v>34833430</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>1</v>
@@ -4157,68 +4158,68 @@
         <v>2023</v>
       </c>
       <c r="D244" s="3">
-        <v>22914170</v>
+        <v>38190280</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C245" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D245" s="3">
-        <v>31604840</v>
+        <v>41167740</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C246" s="2">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D246" s="3">
-        <v>279227610</v>
+        <v>44006270</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C247" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D247" s="3">
-        <v>12332670000</v>
+        <v>41653620</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C248" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D248" s="3">
-        <v>346246150</v>
+        <v>38589660</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>1</v>
@@ -4227,68 +4228,68 @@
         <v>2023</v>
       </c>
       <c r="D249" s="3">
-        <v>20049900</v>
+        <v>42107170</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C250" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D250" s="3">
-        <v>29597470</v>
+        <v>45327980</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C251" s="2">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D251" s="3">
-        <v>28642720</v>
+        <v>48245150</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C252" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D252" s="3">
-        <v>29597470</v>
+        <v>28984160</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C253" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D253" s="3">
-        <v>239384040</v>
+        <v>26995910</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>1</v>
@@ -4297,68 +4298,68 @@
         <v>2023</v>
       </c>
       <c r="D254" s="3">
-        <v>38190280</v>
+        <v>29597470</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C255" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D255" s="3">
-        <v>19095140</v>
+        <v>31905000</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C256" s="2">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D256" s="3">
-        <v>24823680</v>
+        <v>34104860</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C257" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D257" s="3">
-        <v>34371250</v>
+        <v>171495670</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C258" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D258" s="3">
-        <v>19095140</v>
+        <v>166079380</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>1</v>
@@ -4367,68 +4368,68 @@
         <v>2023</v>
       </c>
       <c r="D259" s="3">
-        <v>22914170</v>
+        <v>175929020</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C260" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D260" s="3">
-        <v>1798645910</v>
+        <v>183250120</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C261" s="2">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D261" s="3">
-        <v>33416500</v>
+        <v>191328640</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C262" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D262" s="3">
-        <v>130177740</v>
+        <v>25244260</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C263" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D263" s="3">
-        <v>21959410</v>
+        <v>23512560</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>1</v>
@@ -4437,68 +4438,68 @@
         <v>2023</v>
       </c>
       <c r="D264" s="3">
-        <v>26733200</v>
+        <v>25778440</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C265" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D265" s="3">
-        <v>38190280</v>
+        <v>27788220</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C266" s="2">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D266" s="3">
-        <v>20049900</v>
+        <v>29704230</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C267" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D267" s="3">
-        <v>33416500</v>
+        <v>37398910</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C268" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D268" s="3">
-        <v>32461740</v>
+        <v>34833430</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>1</v>
@@ -4507,82 +4508,82 @@
         <v>2023</v>
       </c>
       <c r="D269" s="3">
-        <v>19095140</v>
+        <v>38190280</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C270" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D270" s="3">
-        <v>27687950</v>
+        <v>41167740</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C271" s="2">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D271" s="3">
-        <v>43177880</v>
+        <v>44006270</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C272" s="2">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D272" s="3">
-        <v>21613060</v>
+        <v>24309290</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C273" s="2">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D273" s="3">
-        <v>837342330</v>
+        <v>22641730</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C274" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D274" s="3">
-        <v>21613060</v>
+        <v>24823680</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>1</v>
@@ -4591,68 +4592,68 @@
         <v>2024</v>
       </c>
       <c r="D275" s="3">
-        <v>304989240</v>
+        <v>26759030</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C276" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D276" s="3">
-        <v>759780950</v>
+        <v>28604080</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C277" s="2">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D277" s="3">
-        <v>50473940</v>
+        <v>22439350</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C278" s="2">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D278" s="3">
-        <v>45161560</v>
+        <v>20900060</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C279" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D279" s="3">
-        <v>41167740</v>
+        <v>22914170</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>1</v>
@@ -4661,68 +4662,68 @@
         <v>2024</v>
       </c>
       <c r="D280" s="3">
-        <v>27788220</v>
+        <v>24700650</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C281" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D281" s="3">
-        <v>29846610</v>
+        <v>26403760</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C282" s="2">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D282" s="3">
-        <v>568119400</v>
+        <v>22439350</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C283" s="2">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D283" s="3">
-        <v>172710020</v>
+        <v>20900060</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C284" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D284" s="3">
-        <v>23671450</v>
+        <v>22914170</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>1</v>
@@ -4731,68 +4732,68 @@
         <v>2024</v>
       </c>
       <c r="D285" s="3">
-        <v>727424360</v>
+        <v>24700650</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C286" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D286" s="3">
-        <v>25729840</v>
+        <v>26403760</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C287" s="2">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D287" s="3">
-        <v>107452960</v>
+        <v>20569400</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C288" s="2">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D288" s="3">
-        <v>22642260</v>
+        <v>19158380</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C289" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D289" s="3">
-        <v>24700650</v>
+        <v>21004650</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>1</v>
@@ -4801,68 +4802,68 @@
         <v>2024</v>
       </c>
       <c r="D290" s="3">
-        <v>162469430</v>
+        <v>22642260</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C291" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D291" s="3">
-        <v>20583870</v>
+        <v>24203440</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C292" s="2">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D292" s="3">
-        <v>26759030</v>
+        <v>36463940</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C293" s="2">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D293" s="3">
-        <v>26759030</v>
+        <v>33962590</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C294" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D294" s="3">
-        <v>21613060</v>
+        <v>37235530</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>1</v>
@@ -4871,68 +4872,68 @@
         <v>2024</v>
       </c>
       <c r="D295" s="3">
-        <v>191749580</v>
+        <v>40138550</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C296" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D296" s="3">
-        <v>22642260</v>
+        <v>42906110</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C297" s="2">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D297" s="3">
-        <v>178419000</v>
+        <v>361214120</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C298" s="2">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D298" s="3">
-        <v>26759030</v>
+        <v>324255000</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C299" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D299" s="3">
-        <v>41167740</v>
+        <v>339352540</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>1</v>
@@ -4941,68 +4942,68 @@
         <v>2024</v>
       </c>
       <c r="D300" s="3">
-        <v>164960780</v>
+        <v>360418110</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C301" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D301" s="3">
-        <v>23671450</v>
+        <v>377482500</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C302" s="2">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D302" s="3">
-        <v>26759030</v>
+        <v>39131770</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C303" s="2">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D303" s="3">
-        <v>37050960</v>
+        <v>36406030</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C304" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D304" s="3">
-        <v>28817420</v>
+        <v>39869410</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>1</v>
@@ -5011,68 +5012,68 @@
         <v>2024</v>
       </c>
       <c r="D305" s="3">
-        <v>50473940</v>
+        <v>42986880</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C306" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D306" s="3">
-        <v>20583870</v>
+        <v>45924860</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C307" s="2">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D307" s="3">
-        <v>1445769910</v>
+        <v>29919130</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C308" s="2">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D308" s="3">
-        <v>20583870</v>
+        <v>27866740</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C309" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D309" s="3">
-        <v>199695960</v>
+        <v>30552230</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>1</v>
@@ -5081,68 +5082,68 @@
         <v>2024</v>
       </c>
       <c r="D310" s="3">
-        <v>30979240</v>
+        <v>32934190.000000004</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C311" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D311" s="3">
-        <v>2075953620</v>
+        <v>35205020</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C312" s="2">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D312" s="3">
-        <v>24700650</v>
+        <v>22439350</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C313" s="2">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D313" s="3">
-        <v>41167740</v>
+        <v>20900060</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C314" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D314" s="3">
-        <v>27788220</v>
+        <v>22914170</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>1</v>
@@ -5151,68 +5152,68 @@
         <v>2024</v>
       </c>
       <c r="D315" s="3">
-        <v>27788220</v>
+        <v>24700650</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C316" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D316" s="3">
-        <v>23671450</v>
+        <v>26403760</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C317" s="2">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D317" s="3">
-        <v>41167740</v>
+        <v>31368920</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C318" s="2">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D318" s="3">
-        <v>682149720</v>
+        <v>29010470</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C319" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D319" s="3">
-        <v>41167740</v>
+        <v>31604840</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>1</v>
@@ -5221,68 +5222,68 @@
         <v>2024</v>
       </c>
       <c r="D320" s="3">
-        <v>41167740</v>
+        <v>34006850</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C321" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D321" s="3">
-        <v>45327980</v>
+        <v>36143430</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C322" s="2">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D322" s="3">
-        <v>31905000</v>
+        <v>237455340</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C323" s="2">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D323" s="3">
-        <v>183250120</v>
+        <v>227187150</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C324" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D324" s="3">
-        <v>27788220</v>
+        <v>279227610</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>1</v>
@@ -5291,68 +5292,68 @@
         <v>2024</v>
       </c>
       <c r="D325" s="3">
-        <v>41167740</v>
+        <v>290328240</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C326" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D326" s="3">
-        <v>26759030</v>
+        <v>296362890</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C327" s="2">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D327" s="3">
-        <v>24700650</v>
+        <v>402403810</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C328" s="2">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D328" s="3">
-        <v>24700650</v>
+        <v>340147290</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C329" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D329" s="3">
-        <v>22642260</v>
+        <v>346246150</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>1</v>
@@ -5361,54 +5362,54 @@
         <v>2024</v>
       </c>
       <c r="D330" s="3">
-        <v>40138550</v>
+        <v>359154530</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C331" s="2">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D331" s="3">
-        <v>360418110</v>
+        <v>19634430</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C332" s="2">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D332" s="3">
-        <v>42986880</v>
+        <v>18287550</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C333" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D333" s="3">
-        <v>32934190.000000004</v>
+        <v>20049900</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>1</v>
@@ -5417,68 +5418,70 @@
         <v>2024</v>
       </c>
       <c r="D334" s="3">
-        <v>24700650</v>
+        <v>21613060</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C335" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D335" s="3">
-        <v>34006850</v>
+        <v>23103290</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C336" s="2">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D336" s="3">
-        <v>290328240</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28984160</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C337" s="2">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D337" s="3">
-        <v>13589550000</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26995910</v>
+      </c>
+      <c r="J337" s="4"/>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C338" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D338" s="3">
-        <v>359154530</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29597470</v>
+      </c>
+      <c r="P338" s="5"/>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>1</v>
@@ -5487,10 +5490,10 @@
         <v>2024</v>
       </c>
       <c r="D339" s="3">
-        <v>21613060</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31905000</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>69</v>
       </c>
@@ -5498,13 +5501,13 @@
         <v>1</v>
       </c>
       <c r="C340" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D340" s="3">
-        <v>31905000</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34104860</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>70</v>
       </c>
@@ -5512,183 +5515,183 @@
         <v>1</v>
       </c>
       <c r="C341" s="2">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D341" s="3">
+        <v>28049190</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C342" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D342" s="3">
+        <v>26125070</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C343" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D343" s="3">
+        <v>28642720</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C344" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D344" s="3">
         <v>30875810</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" s="2" t="s">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C345" s="2">
+        <v>2025</v>
+      </c>
+      <c r="D345" s="3">
+        <v>33004699.999999996</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B342" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C342" s="2">
-        <v>2024</v>
-      </c>
-      <c r="D342" s="3">
+      <c r="B346" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C346" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D346" s="3">
+        <v>28984160</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C347" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D347" s="3">
+        <v>26995910</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C348" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D348" s="3">
+        <v>29597470</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C349" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D349" s="3">
         <v>31905000</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" s="2" t="s">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C350" s="2">
+        <v>2025</v>
+      </c>
+      <c r="D350" s="3">
+        <v>34104860</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B343" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C343" s="2">
-        <v>2024</v>
-      </c>
-      <c r="D343" s="3">
-        <v>243895010</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C344" s="2">
-        <v>2024</v>
-      </c>
-      <c r="D344" s="3">
-        <v>41167740</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C345" s="2">
-        <v>2024</v>
-      </c>
-      <c r="D345" s="3">
-        <v>20583870</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B346" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C346" s="2">
-        <v>2024</v>
-      </c>
-      <c r="D346" s="3">
-        <v>26759030</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B347" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C347" s="2">
-        <v>2024</v>
-      </c>
-      <c r="D347" s="3">
-        <v>37050960</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C348" s="2">
-        <v>2024</v>
-      </c>
-      <c r="D348" s="3">
-        <v>20583870</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C349" s="2">
-        <v>2024</v>
-      </c>
-      <c r="D349" s="3">
-        <v>24700650</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B350" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C350" s="2">
-        <v>2024</v>
-      </c>
-      <c r="D350" s="3">
-        <v>2247488040</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="B351" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C351" s="2">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D351" s="3">
-        <v>36021770</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+        <v>231496150</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C352" s="2">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D352" s="3">
-        <v>140326890</v>
+        <v>216078570</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C353" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D353" s="3">
-        <v>23671450</v>
+        <v>239384040</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>1</v>
@@ -5697,68 +5700,68 @@
         <v>2024</v>
       </c>
       <c r="D354" s="3">
-        <v>28817420</v>
+        <v>243895010</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C355" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D355" s="3">
-        <v>41167740</v>
+        <v>255365750</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C356" s="2">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D356" s="3">
-        <v>21613060</v>
+        <v>37398910</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C357" s="2">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D357" s="3">
-        <v>36021770</v>
+        <v>34833430</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C358" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D358" s="3">
-        <v>34992580</v>
+        <v>38190280</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>1</v>
@@ -5767,82 +5770,82 @@
         <v>2024</v>
       </c>
       <c r="D359" s="3">
-        <v>20583870</v>
+        <v>41167740</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C360" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D360" s="3">
-        <v>29846610</v>
+        <v>44006270</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C361" s="2">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D361" s="3">
-        <v>46608030</v>
+        <v>18699460</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C362" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D362" s="3">
-        <v>23103290</v>
+        <v>17416710</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C363" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D363" s="3">
-        <v>954463260</v>
+        <v>19095140</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C364" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D364" s="3">
-        <v>23103290</v>
+        <v>20583870</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>1</v>
@@ -5851,68 +5854,68 @@
         <v>2025</v>
       </c>
       <c r="D365" s="3">
-        <v>327974830</v>
+        <v>22003130</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C366" s="2">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D366" s="3">
-        <v>846486980</v>
+        <v>24309290</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C367" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D367" s="3">
-        <v>53745930</v>
+        <v>22641730</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C368" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D368" s="3">
-        <v>48253510</v>
+        <v>24823680</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C369" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D369" s="3">
-        <v>44006270</v>
+        <v>26759030</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>1</v>
@@ -5921,68 +5924,68 @@
         <v>2025</v>
       </c>
       <c r="D370" s="3">
-        <v>29704230</v>
+        <v>28604080</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C371" s="2">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D371" s="3">
-        <v>31904540</v>
+        <v>33659020</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C372" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D372" s="3">
-        <v>602412420</v>
+        <v>31350080</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C373" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D373" s="3">
-        <v>184618420</v>
+        <v>34371250</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C374" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D374" s="3">
-        <v>25303600</v>
+        <v>37050960</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>1</v>
@@ -5991,68 +5994,68 @@
         <v>2025</v>
       </c>
       <c r="D375" s="3">
-        <v>731989990</v>
+        <v>39605640</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C376" s="2">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D376" s="3">
-        <v>27503920</v>
+        <v>18699460</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C377" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D377" s="3">
-        <v>112934320</v>
+        <v>17416710</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C378" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D378" s="3">
-        <v>24203440</v>
+        <v>19095140</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C379" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D379" s="3">
-        <v>26403760</v>
+        <v>20583870</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>1</v>
@@ -6061,68 +6064,68 @@
         <v>2025</v>
       </c>
       <c r="D380" s="3">
-        <v>168906470</v>
+        <v>22003130</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C381" s="2">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D381" s="3">
-        <v>22003130</v>
+        <v>22439350</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C382" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D382" s="3">
-        <v>28604080</v>
+        <v>20900060</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C383" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D383" s="3">
-        <v>28604080</v>
+        <v>22914170</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C384" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D384" s="3">
-        <v>23103290</v>
+        <v>24700650</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>1</v>
@@ -6131,68 +6134,68 @@
         <v>2025</v>
       </c>
       <c r="D385" s="3">
-        <v>204762570</v>
+        <v>26403760</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C386" s="2">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D386" s="3">
-        <v>24203440</v>
+        <v>1691867250</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C387" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D387" s="3">
-        <v>190758460</v>
+        <v>1600066850</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C388" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D388" s="3">
-        <v>28604080</v>
+        <v>1798645910</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C389" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D389" s="3">
-        <v>44006270</v>
+        <v>2247488040</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>1</v>
@@ -6201,68 +6204,68 @@
         <v>2025</v>
       </c>
       <c r="D390" s="3">
-        <v>176332810</v>
+        <v>2826233980</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C391" s="2">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D391" s="3">
-        <v>25303600</v>
+        <v>32724050</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C392" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D392" s="3">
-        <v>28604080</v>
+        <v>30479250</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C393" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D393" s="3">
-        <v>39605640</v>
+        <v>33416500</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C394" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D394" s="3">
-        <v>30804390</v>
+        <v>36021770</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>1</v>
@@ -6271,68 +6274,68 @@
         <v>2025</v>
       </c>
       <c r="D395" s="3">
-        <v>53745930</v>
+        <v>38505480</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C396" s="2">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D396" s="3">
-        <v>22003130</v>
+        <v>127480230</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C397" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D397" s="3">
-        <v>1538676130</v>
+        <v>118735360</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C398" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D398" s="3">
-        <v>22003130</v>
+        <v>130177740</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C399" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D399" s="3">
-        <v>213465050</v>
+        <v>140326890</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>1</v>
@@ -6341,68 +6344,68 @@
         <v>2025</v>
       </c>
       <c r="D400" s="3">
-        <v>33090620.000000004</v>
+        <v>150002470</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C401" s="2">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D401" s="3">
-        <v>2270226820</v>
+        <v>21504370</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C402" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D402" s="3">
-        <v>26403760</v>
+        <v>20029220</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C403" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D403" s="3">
-        <v>44006270</v>
+        <v>21959410</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C404" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D404" s="3">
-        <v>29704230</v>
+        <v>23671450</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>1</v>
@@ -6411,68 +6414,68 @@
         <v>2025</v>
       </c>
       <c r="D405" s="3">
-        <v>29704230</v>
+        <v>25303600</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C406" s="2">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D406" s="3">
-        <v>25303600</v>
+        <v>26179240</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C407" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D407" s="3">
-        <v>44006270</v>
+        <v>24383400</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C408" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D408" s="3">
-        <v>648533070</v>
+        <v>26733200</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C409" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D409" s="3">
-        <v>44006270</v>
+        <v>28817420</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>1</v>
@@ -6481,68 +6484,68 @@
         <v>2025</v>
       </c>
       <c r="D410" s="3">
-        <v>44006270</v>
+        <v>30804390</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C411" s="2">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D411" s="3">
-        <v>48245150</v>
+        <v>37398910</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C412" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D412" s="3">
-        <v>34104860</v>
+        <v>34833430</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C413" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D413" s="3">
-        <v>191328640</v>
+        <v>38190280</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C414" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D414" s="3">
-        <v>29704230</v>
+        <v>41167740</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>1</v>
@@ -6556,63 +6559,63 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C416" s="2">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D416" s="3">
-        <v>28604080</v>
+        <v>19634430</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C417" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D417" s="3">
-        <v>26403760</v>
+        <v>18287550</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C418" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D418" s="3">
-        <v>26403760</v>
+        <v>20049900</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C419" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D419" s="3">
-        <v>24203440</v>
+        <v>21613060</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>1</v>
@@ -6621,68 +6624,68 @@
         <v>2025</v>
       </c>
       <c r="D420" s="3">
-        <v>42906110</v>
+        <v>23103290</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C421" s="2">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D421" s="3">
-        <v>377482500</v>
+        <v>32724050</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C422" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D422" s="3">
-        <v>45924860</v>
+        <v>30479250</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C423" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D423" s="3">
-        <v>35205020</v>
+        <v>33416500</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C424" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D424" s="3">
-        <v>26403760</v>
+        <v>36021770</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>1</v>
@@ -6691,68 +6694,68 @@
         <v>2025</v>
       </c>
       <c r="D425" s="3">
-        <v>36143430</v>
+        <v>38505480</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C426" s="2">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D426" s="3">
-        <v>296362890</v>
+        <v>31789080</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C427" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D427" s="3">
-        <v>14873400000</v>
+        <v>29608410</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C428" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D428" s="3">
-        <v>367104210</v>
+        <v>32461740</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C429" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D429" s="3">
-        <v>23103290</v>
+        <v>34992580</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>1</v>
@@ -6761,68 +6764,68 @@
         <v>2025</v>
       </c>
       <c r="D430" s="3">
-        <v>34104860</v>
+        <v>37405330</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C431" s="2">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D431" s="3">
-        <v>33004699.999999996</v>
+        <v>18699460</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C432" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D432" s="3">
-        <v>34104860</v>
+        <v>17416710</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C433" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D433" s="3">
-        <v>255365750</v>
+        <v>19095140</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C434" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D434" s="3">
-        <v>44006270</v>
+        <v>20583870</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>1</v>
@@ -6836,63 +6839,63 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C436" s="2">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D436" s="3">
-        <v>28604080</v>
+        <v>27114210</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C437" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D437" s="3">
-        <v>39605640</v>
+        <v>25254230</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C438" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D438" s="3">
-        <v>22003130</v>
+        <v>27687950</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C439" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D439" s="3">
-        <v>26403760</v>
+        <v>29846610</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>1</v>
@@ -6901,68 +6904,68 @@
         <v>2025</v>
       </c>
       <c r="D440" s="3">
-        <v>2826233980</v>
+        <v>31904540</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C441" s="2">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D441" s="3">
-        <v>38505480</v>
+        <v>42345920</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C442" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D442" s="3">
-        <v>150002470</v>
+        <v>39417590</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C443" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D443" s="3">
-        <v>25303600</v>
+        <v>43177880</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C444" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D444" s="3">
-        <v>30804390</v>
+        <v>46608030</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>1</v>
@@ -6971,97 +6974,13 @@
         <v>2025</v>
       </c>
       <c r="D445" s="3">
-        <v>44006270</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A446" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B446" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C446" s="2">
-        <v>2025</v>
-      </c>
-      <c r="D446" s="3">
-        <v>23103290</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B447" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C447" s="2">
-        <v>2025</v>
-      </c>
-      <c r="D447" s="3">
-        <v>38505480</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A448" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B448" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C448" s="2">
-        <v>2025</v>
-      </c>
-      <c r="D448" s="3">
-        <v>37405330</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A449" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B449" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C449" s="2">
-        <v>2025</v>
-      </c>
-      <c r="D449" s="3">
-        <v>22003130</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A450" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B450" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C450" s="2">
-        <v>2025</v>
-      </c>
-      <c r="D450" s="3">
-        <v>31904540</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A451" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B451" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C451" s="2">
-        <v>2025</v>
-      </c>
-      <c r="D451" s="3">
         <v>49849780</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D451">
-      <sortCondition ref="C1"/>
+      <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D93">
